--- a/Data/Processed/hd_hand_counted.xlsx
+++ b/Data/Processed/hd_hand_counted.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngomae/MyGithub/h2lifespan/Data/Processed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kingeg/Documents/h2lifespan/Data/Processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="460" windowWidth="16580" windowHeight="17300" tabRatio="500"/>
+    <workbookView xWindow="22140" yWindow="1540" windowWidth="19420" windowHeight="26900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="357">
   <si>
     <t>sampleid</t>
   </si>
@@ -1065,6 +1065,39 @@
   </si>
   <si>
     <t>camera_id</t>
+  </si>
+  <si>
+    <t>IMG_5548.JPG</t>
+  </si>
+  <si>
+    <t>IMG_5273.JPG</t>
+  </si>
+  <si>
+    <t>IMG_5323.JPG</t>
+  </si>
+  <si>
+    <t>IMG_5432.JPG</t>
+  </si>
+  <si>
+    <t>IMG_5154.JPG</t>
+  </si>
+  <si>
+    <t>IMG_5460.JPG</t>
+  </si>
+  <si>
+    <t>IMG_4357.JPG</t>
+  </si>
+  <si>
+    <t>IMG_5151.JPG</t>
+  </si>
+  <si>
+    <t>IMG_5587.JPG</t>
+  </si>
+  <si>
+    <t>IMG_5488.JPG</t>
+  </si>
+  <si>
+    <t>EK</t>
   </si>
 </sst>
 </file>
@@ -1417,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J184"/>
+  <dimension ref="A1:J194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F193" sqref="F193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5412,6 +5445,146 @@
         <v>35</v>
       </c>
     </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>346</v>
+      </c>
+      <c r="G185" s="1">
+        <v>0</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>347</v>
+      </c>
+      <c r="G186" s="1">
+        <v>0</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I186" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>348</v>
+      </c>
+      <c r="G187" s="1">
+        <v>0</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>349</v>
+      </c>
+      <c r="G188" s="1">
+        <v>0</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>350</v>
+      </c>
+      <c r="G189" s="1">
+        <v>0</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>351</v>
+      </c>
+      <c r="G190" s="1">
+        <v>0</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I190" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>352</v>
+      </c>
+      <c r="G191" s="1">
+        <v>0</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I191" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>353</v>
+      </c>
+      <c r="G192" s="1">
+        <v>0</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I192" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>354</v>
+      </c>
+      <c r="G193" s="1">
+        <v>0</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>355</v>
+      </c>
+      <c r="G194" s="1">
+        <v>0</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:J162">
     <sortCondition ref="A2:A162"/>

--- a/Data/Processed/hd_hand_counted.xlsx
+++ b/Data/Processed/hd_hand_counted.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kingeg/Documents/h2lifespan/Data/Processed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngomae/MyGithub/h2lifespan/Data/Processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="22140" yWindow="1540" windowWidth="19420" windowHeight="26900" tabRatio="500"/>
+    <workbookView xWindow="28860" yWindow="620" windowWidth="19420" windowHeight="20020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1452,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F193" sqref="F193"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3576,7 +3576,7 @@
         <v>42451</v>
       </c>
       <c r="G94" s="1">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>291</v>

--- a/Data/Processed/hd_hand_counted.xlsx
+++ b/Data/Processed/hd_hand_counted.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28860" yWindow="620" windowWidth="19420" windowHeight="20020" tabRatio="500"/>
+    <workbookView xWindow="9380" yWindow="460" windowWidth="19420" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="409">
   <si>
     <t>sampleid</t>
   </si>
@@ -1098,13 +1098,169 @@
   </si>
   <si>
     <t>EK</t>
+  </si>
+  <si>
+    <t>IMG_2043.JPG</t>
+  </si>
+  <si>
+    <t>IMG_2049.JPG</t>
+  </si>
+  <si>
+    <t>IMG_2124.JPG</t>
+  </si>
+  <si>
+    <t>IMG_2137.JPG</t>
+  </si>
+  <si>
+    <t>IMG_2139.JPG</t>
+  </si>
+  <si>
+    <t>IMG_2142.JPG</t>
+  </si>
+  <si>
+    <t>IMG_2178.JPG</t>
+  </si>
+  <si>
+    <t>IMG_2239.JPG</t>
+  </si>
+  <si>
+    <t>IMG_2372.JPG</t>
+  </si>
+  <si>
+    <t>IMG_2373.JPG</t>
+  </si>
+  <si>
+    <t>IMG_2375.JPG</t>
+  </si>
+  <si>
+    <t>IMG_2469.JPG</t>
+  </si>
+  <si>
+    <t>IMG_2691.JPG</t>
+  </si>
+  <si>
+    <t>IMG_2751.JPG</t>
+  </si>
+  <si>
+    <t>IMG_2756.JPG</t>
+  </si>
+  <si>
+    <t>IMG_2822.JPG</t>
+  </si>
+  <si>
+    <t>IMG_2857.JPG</t>
+  </si>
+  <si>
+    <t>IMG_2858.JPG</t>
+  </si>
+  <si>
+    <t>IMG_2859.JPG</t>
+  </si>
+  <si>
+    <t>IMG_2860.JPG</t>
+  </si>
+  <si>
+    <t>IMG_2898.JPG</t>
+  </si>
+  <si>
+    <t>IMG_2899.JPG</t>
+  </si>
+  <si>
+    <t>IMG_2916.JPG</t>
+  </si>
+  <si>
+    <t>IMG_2921.JPG</t>
+  </si>
+  <si>
+    <t>IMG_2933.JPG</t>
+  </si>
+  <si>
+    <t>IMG_2934.JPG</t>
+  </si>
+  <si>
+    <t>IMG_2935.JPG</t>
+  </si>
+  <si>
+    <t>IMG_2938.JPG</t>
+  </si>
+  <si>
+    <t>IMG_3035.JPG</t>
+  </si>
+  <si>
+    <t>IMG_3056.JPG</t>
+  </si>
+  <si>
+    <t>IMG_3085.JPG</t>
+  </si>
+  <si>
+    <t>IMG_3102.JPG</t>
+  </si>
+  <si>
+    <t>IMG_3206.JPG</t>
+  </si>
+  <si>
+    <t>IMG_3234.JPG</t>
+  </si>
+  <si>
+    <t>IMG_3316.JPG</t>
+  </si>
+  <si>
+    <t>IMG_3317.JPG</t>
+  </si>
+  <si>
+    <t>IMG_3318.JPG</t>
+  </si>
+  <si>
+    <t>IMG_3319.JPG</t>
+  </si>
+  <si>
+    <t>IMG_3320.JPG</t>
+  </si>
+  <si>
+    <t>IMG_3349.JPG</t>
+  </si>
+  <si>
+    <t>IMG_3442.JPG</t>
+  </si>
+  <si>
+    <t>IMG_3565.JPG</t>
+  </si>
+  <si>
+    <t>IMG_3601.JPG</t>
+  </si>
+  <si>
+    <t>IMG_3663.JPG</t>
+  </si>
+  <si>
+    <t>IMG_3840.JPG</t>
+  </si>
+  <si>
+    <t>too dark</t>
+  </si>
+  <si>
+    <t>dense&amp;clumped</t>
+  </si>
+  <si>
+    <t>highlight on side</t>
+  </si>
+  <si>
+    <t>highlight</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>dark &amp; grid</t>
+  </si>
+  <si>
+    <t>no eggs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1142,6 +1298,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1163,7 +1326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1173,6 +1336,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1450,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J194"/>
+  <dimension ref="A1:J239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I244" sqref="I244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3260,7 +3424,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>195</v>
       </c>
@@ -3283,7 +3447,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>194</v>
       </c>
@@ -3306,7 +3470,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>193</v>
       </c>
@@ -3329,7 +3493,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>192</v>
       </c>
@@ -3352,7 +3516,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>191</v>
       </c>
@@ -3375,7 +3539,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>190</v>
       </c>
@@ -3398,7 +3562,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>189</v>
       </c>
@@ -3421,7 +3585,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>188</v>
       </c>
@@ -3444,7 +3608,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>187</v>
       </c>
@@ -3467,7 +3631,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>204</v>
       </c>
@@ -3490,7 +3654,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>203</v>
       </c>
@@ -3513,7 +3677,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>202</v>
       </c>
@@ -3536,7 +3700,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>201</v>
       </c>
@@ -3559,7 +3723,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>200</v>
       </c>
@@ -3581,8 +3745,11 @@
       <c r="H94" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>199</v>
       </c>
@@ -3605,7 +3772,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>198</v>
       </c>
@@ -5557,7 +5724,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>354</v>
       </c>
@@ -5571,7 +5738,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>355</v>
       </c>
@@ -5583,6 +5750,755 @@
       </c>
       <c r="I194" s="1" t="s">
         <v>356</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A195" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="G195" s="9">
+        <v>780</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J195" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A196" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="G196" s="9">
+        <v>1354</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I196" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J196"/>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A197" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="G197" s="9">
+        <v>745</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I197" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J197" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A198" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="G198" s="9">
+        <v>808</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J198"/>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A199" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="G199" s="9">
+        <v>1062</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I199" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J199"/>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A200" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="G200" s="9">
+        <v>1057</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I200" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J200"/>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A201" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="G201" s="9">
+        <v>2073</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J201" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A202" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="G202" s="9">
+        <v>401</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J202" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A203" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="G203" s="9">
+        <v>1578</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J203" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A204" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="G204" s="9">
+        <v>819</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J204" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A205" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="G205" s="9">
+        <v>425</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I205" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J205" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A206" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="G206" s="9">
+        <v>715</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I206" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J206" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A207" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G207" s="9">
+        <v>120</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I207" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J207" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A208" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="G208" s="9">
+        <v>830</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I208" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J208" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A209" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="G209" s="9">
+        <v>1065</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I209" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J209" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A210" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="G210" s="9">
+        <v>157</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J210" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A211" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="G211" s="9">
+        <v>853</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J211" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A212" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="G212" s="9">
+        <v>526</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J212" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A213" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="G213" s="9">
+        <v>195</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I213" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J213" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A214" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="G214" s="9">
+        <v>368</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J214" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A215" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="G215" s="9">
+        <v>338</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J215" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A216" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="G216" s="9">
+        <v>85</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J216" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A217" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="G217" s="9">
+        <v>647</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J217" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A218" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="G218" s="9">
+        <v>208</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J218"/>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A219" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="G219" s="9">
+        <v>841</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I219" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J219" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A220" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="G220" s="9">
+        <v>770</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I220" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J220" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A221" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="G221" s="9">
+        <v>747</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J221" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A222" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="G222" s="9">
+        <v>326</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J222" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A223" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="G223" s="9">
+        <v>938</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J223"/>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A224" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="G224" s="9">
+        <v>978</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J224"/>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A225" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="G225" s="9">
+        <v>985</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J225" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A226" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="G226" s="9">
+        <v>631</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J226" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A227" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="G227" s="9">
+        <v>572</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J227" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A228" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="G228" s="9">
+        <v>409</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J228" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A229" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="G229" s="9">
+        <v>613</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I229" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J229" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A230" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="G230" s="9">
+        <v>566</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I230" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J230" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A231" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="G231" s="9">
+        <v>432</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J231" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A232" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="G232" s="9">
+        <v>427</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I232" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J232" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A233" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="G233" s="9">
+        <v>344</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J233" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A234" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="G234" s="9">
+        <v>459</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J234" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A235" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="G235" s="9">
+        <v>1134</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J235"/>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A236" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="G236" s="9">
+        <v>324</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J236" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A237" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="G237" s="9">
+        <v>7</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J237" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A238" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="G238" s="9">
+        <v>66</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I238" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J238" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A239" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="G239" s="9">
+        <v>107</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J239" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Processed/hd_hand_counted.xlsx
+++ b/Data/Processed/hd_hand_counted.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ngomae/MyGithub/h2lifespan/Data/Processed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kmm/Documents/GitHub/h2lifespan/Data/Processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{954B0E4E-EE2F-444A-89BE-16C82B63F4C3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9380" yWindow="460" windowWidth="19420" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="-19420" yWindow="460" windowWidth="19420" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="410">
   <si>
     <t>sampleid</t>
   </si>
@@ -1254,12 +1255,15 @@
   </si>
   <si>
     <t>no eggs</t>
+  </si>
+  <si>
+    <t>Orig_Seq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1306,12 +1310,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1326,7 +1336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1337,6 +1347,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1346,6 +1357,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1613,4897 +1627,5617 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J239"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I244" sqref="I244"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A215" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="11" style="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1"/>
+    <col min="4" max="6" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="11" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>42689</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>932</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>42689</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>700</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>42689</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>708</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>42689</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>662</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>42689</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>956</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>42689</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>652</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>42689</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>610</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>42689</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>1293</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>42689</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>735</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>42689</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>1054</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>42689</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>577</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>42689</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>873</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>42689</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>822</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>42689</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>743</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="3">
         <v>42689</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>1601</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>42430</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>1237</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="I17" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>42430</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>1025</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="I18" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
         <v>42430</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>685</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="I19" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>42430</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>839</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="I20" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>42430</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>971</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="I21" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>42430</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>998</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="I22" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>42430</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>870</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J23" s="1" t="s">
+      <c r="I23" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="4">
+      <c r="G24" s="4">
         <v>42437</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>653</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="I24" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="4">
         <v>42437</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>807</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="I25" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="4">
+      <c r="G26" s="4">
         <v>42437</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>458</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J26" s="1" t="s">
+      <c r="I26" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="4">
+      <c r="G27" s="4">
         <v>42437</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>336</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="I27" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="4">
+      <c r="G28" s="4">
         <v>42437</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>526</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="I28" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="4">
+      <c r="G29" s="4">
         <v>42437</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>910</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="I29" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="4">
+      <c r="G30" s="4">
         <v>42437</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>242</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="I30" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="4">
+      <c r="G31" s="4">
         <v>42437</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H31" s="1">
         <v>744</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="I31" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="4">
+      <c r="G32" s="4">
         <v>42437</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <v>408</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="I32" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="4">
+      <c r="G33" s="4">
         <v>42437</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <v>605</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="I33" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F34" s="4">
+      <c r="G34" s="4">
         <v>42437</v>
       </c>
-      <c r="G34" s="1">
+      <c r="H34" s="1">
         <v>276</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="I34" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="4">
+      <c r="G35" s="4">
         <v>42437</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <v>828</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J35" s="1" t="s">
+      <c r="I35" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="4">
+      <c r="G36" s="4">
         <v>42437</v>
       </c>
-      <c r="G36" s="5">
+      <c r="H36" s="5">
         <v>519</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="I36" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="4">
+      <c r="G37" s="4">
         <v>42437</v>
       </c>
-      <c r="G37" s="5">
+      <c r="H37" s="5">
         <v>485</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="I37" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="4">
+      <c r="G38" s="4">
         <v>42437</v>
       </c>
-      <c r="G38" s="1">
+      <c r="H38" s="1">
         <v>904</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="I38" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="4">
+      <c r="G39" s="4">
         <v>42437</v>
       </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
         <v>369</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J39" s="1" t="s">
+      <c r="I39" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="4">
+      <c r="G40" s="4">
         <v>42437</v>
       </c>
-      <c r="G40" s="1">
+      <c r="H40" s="1">
         <v>367</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="I40" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F41" s="4">
+      <c r="G41" s="4">
         <v>42437</v>
       </c>
-      <c r="G41" s="1">
+      <c r="H41" s="1">
         <v>161</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J41" s="1" t="s">
+      <c r="I41" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="4">
+      <c r="G42" s="4">
         <v>42437</v>
       </c>
-      <c r="G42" s="1">
+      <c r="H42" s="1">
         <v>290</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="I42" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="4">
+      <c r="G43" s="4">
         <v>42437</v>
       </c>
-      <c r="G43" s="1">
+      <c r="H43" s="1">
         <v>356</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J43" s="1" t="s">
+      <c r="I43" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="4">
+      <c r="G44" s="4">
         <v>42437</v>
       </c>
-      <c r="G44" s="1">
+      <c r="H44" s="1">
         <v>591</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J44" s="1" t="s">
+      <c r="I44" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="4">
+      <c r="G45" s="4">
         <v>42437</v>
       </c>
-      <c r="G45" s="1">
+      <c r="H45" s="1">
         <v>356</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J45" s="1" t="s">
+      <c r="I45" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K45" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="4">
+      <c r="G46" s="4">
         <v>42437</v>
       </c>
-      <c r="G46" s="1">
+      <c r="H46" s="1">
         <v>319</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J46" s="1" t="s">
+      <c r="I46" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="4">
+      <c r="G47" s="4">
         <v>42437</v>
       </c>
-      <c r="G47" s="1">
+      <c r="H47" s="1">
         <v>321</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="I47" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F48" s="4">
+      <c r="G48" s="4">
         <v>42437</v>
       </c>
-      <c r="G48" s="1">
+      <c r="H48" s="1">
         <v>136</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J48" s="1" t="s">
+      <c r="I48" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="4">
+      <c r="G49" s="4">
         <v>42437</v>
       </c>
-      <c r="G49" s="1">
+      <c r="H49" s="1">
         <v>732</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="I49" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="4">
+      <c r="G50" s="4">
         <v>42437</v>
       </c>
-      <c r="G50" s="1">
+      <c r="H50" s="1">
         <v>76</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="I50" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="4">
+      <c r="G51" s="4">
         <v>42437</v>
       </c>
-      <c r="G51" s="1">
+      <c r="H51" s="1">
         <v>236</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="I51" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D52" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="4">
+      <c r="G52" s="4">
         <v>42437</v>
       </c>
-      <c r="G52" s="1">
+      <c r="H52" s="1">
         <v>782</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="I52" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D53" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F53" s="4">
+      <c r="G53" s="4">
         <v>42437</v>
       </c>
-      <c r="G53" s="1">
+      <c r="H53" s="1">
         <v>636</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="I53" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F54" s="4">
+      <c r="G54" s="4">
         <v>42437</v>
       </c>
-      <c r="G54" s="1">
+      <c r="H54" s="1">
         <v>371</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="I54" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D55" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F55" s="3">
+      <c r="G55" s="3">
         <v>42444</v>
       </c>
-      <c r="G55" s="1">
+      <c r="H55" s="1">
         <v>781</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="I55" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F56" s="3">
+      <c r="G56" s="3">
         <v>42444</v>
       </c>
-      <c r="G56" s="1">
+      <c r="H56" s="1">
         <v>996</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="I56" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D57" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>42444</v>
       </c>
-      <c r="G57" s="1">
+      <c r="H57" s="1">
         <v>1195</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="I57" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>42444</v>
       </c>
-      <c r="G58" s="1">
+      <c r="H58" s="1">
         <v>897</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="I58" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>42444</v>
       </c>
-      <c r="G59" s="1">
+      <c r="H59" s="1">
         <v>673</v>
       </c>
-      <c r="H59" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J59" s="7" t="s">
+      <c r="I59" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K59" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>42444</v>
       </c>
-      <c r="G60" s="1">
+      <c r="H60" s="1">
         <v>633</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="I60" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>42444</v>
       </c>
-      <c r="G61" s="1">
+      <c r="H61" s="1">
         <v>441</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="I61" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>194</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="H62" s="9">
+        <v>780</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K62" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>195</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="H63" s="9">
+        <v>1354</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K63"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="D64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G64" s="3">
         <v>42444</v>
       </c>
-      <c r="G62" s="1">
+      <c r="H64" s="1">
         <v>958</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="I64" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="1" t="s">
+      <c r="D65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F63" s="3">
+      <c r="G65" s="3">
         <v>42444</v>
       </c>
-      <c r="G63" s="1">
+      <c r="H65" s="1">
         <v>603</v>
       </c>
-      <c r="H63" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J63" s="1" t="s">
+      <c r="I65" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K65" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" s="1" t="s">
+      <c r="D66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F64" s="3">
+      <c r="G66" s="3">
         <v>42444</v>
       </c>
-      <c r="G64" s="1">
+      <c r="H66" s="1">
         <v>854</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+      <c r="I66" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="D67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F65" s="3">
+      <c r="G67" s="3">
         <v>42444</v>
       </c>
-      <c r="G65" s="1">
+      <c r="H67" s="1">
         <v>867</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+      <c r="I67" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="D68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G68" s="3">
         <v>42444</v>
       </c>
-      <c r="G66" s="1">
+      <c r="H68" s="1">
         <v>652</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+      <c r="I68" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>196</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="H69" s="9">
+        <v>745</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K69" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>66</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="D70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F67" s="3">
+      <c r="G70" s="3">
         <v>42444</v>
       </c>
-      <c r="G67" s="1">
+      <c r="H70" s="1">
         <v>829</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+      <c r="I70" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>197</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="H71" s="9">
+        <v>808</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K71"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>198</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="H72" s="9">
+        <v>1062</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K72"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>199</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="H73" s="9">
+        <v>1057</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K73"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>67</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="D74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F68" s="3">
+      <c r="G74" s="3">
         <v>42444</v>
       </c>
-      <c r="G68" s="1">
+      <c r="H74" s="1">
         <v>1393</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J68" s="1" t="s">
+      <c r="I74" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K74" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>200</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="H75" s="9">
+        <v>2073</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K75" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>68</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F69" s="3">
+      <c r="G76" s="3">
         <v>42444</v>
       </c>
-      <c r="G69" s="1">
+      <c r="H76" s="1">
         <v>1229</v>
       </c>
-      <c r="H69" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J69" s="1" t="s">
+      <c r="I76" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K76" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>69</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="1" t="s">
+      <c r="D77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="3">
+      <c r="G77" s="3">
         <v>42444</v>
       </c>
-      <c r="G70" s="1">
+      <c r="H77" s="1">
         <v>1103</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+      <c r="I77" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>70</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D71" s="1" t="s">
+      <c r="D78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F71" s="3">
+      <c r="G78" s="3">
         <v>42451</v>
       </c>
-      <c r="G71" s="1">
+      <c r="H78" s="1">
         <v>659</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+      <c r="I78" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>71</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G79" s="3">
         <v>42451</v>
       </c>
-      <c r="G72" s="1">
+      <c r="H79" s="1">
         <v>141</v>
       </c>
-      <c r="H72" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+      <c r="I79" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>72</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C80" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D73" s="1" t="s">
+      <c r="D80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F73" s="3">
+      <c r="G80" s="3">
         <v>42451</v>
       </c>
-      <c r="G73" s="1">
+      <c r="H80" s="1">
         <v>670</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+      <c r="I80" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>73</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="1" t="s">
+      <c r="D81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F74" s="3">
+      <c r="G81" s="3">
         <v>42451</v>
       </c>
-      <c r="G74" s="1">
+      <c r="H81" s="1">
         <v>730</v>
       </c>
-      <c r="H74" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+      <c r="I81" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>164</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="G82" s="3">
+        <v>42899</v>
+      </c>
+      <c r="H82" s="1">
+        <v>856</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>165</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="G83" s="3">
+        <v>42899</v>
+      </c>
+      <c r="H83" s="1">
+        <v>860</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>166</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="G84" s="3">
+        <v>42899</v>
+      </c>
+      <c r="H84" s="1">
+        <v>791</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>167</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G85" s="3">
+        <v>42899</v>
+      </c>
+      <c r="H85" s="1">
+        <v>968</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>168</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="G86" s="3">
+        <v>42899</v>
+      </c>
+      <c r="H86" s="1">
+        <v>981</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>169</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="G87" s="3">
+        <v>42899</v>
+      </c>
+      <c r="H87" s="1">
+        <v>710</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>170</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="G88" s="3">
+        <v>42899</v>
+      </c>
+      <c r="H88" s="1">
+        <v>827</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>171</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="G89" s="3">
+        <v>42899</v>
+      </c>
+      <c r="H89" s="1">
+        <v>114</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>172</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="G90" s="3">
+        <v>42899</v>
+      </c>
+      <c r="H90" s="1">
+        <v>219</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>173</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="G91" s="3">
+        <v>42899</v>
+      </c>
+      <c r="H91" s="1">
+        <v>822</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>174</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G92" s="3">
+        <v>42899</v>
+      </c>
+      <c r="H92" s="1">
+        <v>857</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>175</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G93" s="3">
+        <v>42899</v>
+      </c>
+      <c r="H93" s="1">
+        <v>494</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>176</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G94" s="3">
+        <v>42899</v>
+      </c>
+      <c r="H94" s="1">
+        <v>730</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>177</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G95" s="3">
+        <v>42899</v>
+      </c>
+      <c r="H95" s="1">
+        <v>293</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>178</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G96" s="3">
+        <v>42899</v>
+      </c>
+      <c r="H96" s="1">
+        <v>292</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>201</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="H97" s="9">
+        <v>401</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K97" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>74</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="D98" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F75" s="3">
+      <c r="G98" s="3">
         <v>42451</v>
       </c>
-      <c r="G75" s="1">
+      <c r="H98" s="1">
         <v>483</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+      <c r="I98" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>75</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="D99" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G99" s="3">
         <v>42451</v>
       </c>
-      <c r="G76" s="1">
+      <c r="H99" s="1">
         <v>194</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+      <c r="I99" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>76</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F77" s="3">
+      <c r="G100" s="3">
         <v>42451</v>
       </c>
-      <c r="G77" s="1">
+      <c r="H100" s="1">
         <v>80</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+      <c r="I100" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>77</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" s="1" t="s">
+      <c r="D101" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="3">
+      <c r="G101" s="3">
         <v>42451</v>
       </c>
-      <c r="G78" s="1">
+      <c r="H101" s="1">
         <v>469</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+      <c r="I101" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>78</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D79" s="1" t="s">
+      <c r="D102" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F79" s="3">
+      <c r="G102" s="3">
         <v>42451</v>
       </c>
-      <c r="G79" s="1">
+      <c r="H102" s="1">
         <v>424</v>
       </c>
-      <c r="H79" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+      <c r="I102" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>79</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="D103" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F80" s="3">
+      <c r="G103" s="3">
         <v>42451</v>
       </c>
-      <c r="G80" s="1">
+      <c r="H103" s="1">
         <v>383</v>
       </c>
-      <c r="H80" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+      <c r="I103" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>202</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="H104" s="9">
+        <v>1578</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K104" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>203</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="H105" s="9">
+        <v>819</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K105" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>204</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="H106" s="9">
+        <v>425</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K106" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>80</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="1" t="s">
+      <c r="D107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G107" s="3">
         <v>42451</v>
       </c>
-      <c r="G81" s="1">
+      <c r="H107" s="1">
         <v>860</v>
       </c>
-      <c r="H81" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
+      <c r="I107" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>81</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D82" s="1" t="s">
+      <c r="D108" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F82" s="3">
+      <c r="G108" s="3">
         <v>42451</v>
       </c>
-      <c r="G82" s="1">
+      <c r="H108" s="1">
         <v>775</v>
       </c>
-      <c r="H82" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+      <c r="I108" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>82</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D83" s="1" t="s">
+      <c r="D109" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G109" s="3">
         <v>42451</v>
       </c>
-      <c r="G83" s="1">
+      <c r="H109" s="1">
         <v>1121</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+      <c r="I109" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>83</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" s="1" t="s">
+      <c r="D110" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="3">
+      <c r="G110" s="3">
         <v>42451</v>
       </c>
-      <c r="G84" s="1">
+      <c r="H110" s="1">
         <v>789</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+      <c r="I110" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>84</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" s="1" t="s">
+      <c r="D111" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F85" s="3">
+      <c r="G111" s="3">
         <v>42451</v>
       </c>
-      <c r="G85" s="1">
+      <c r="H111" s="1">
         <v>948</v>
       </c>
-      <c r="H85" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+      <c r="I111" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>85</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F86" s="3">
+      <c r="G112" s="3">
         <v>42451</v>
       </c>
-      <c r="G86" s="1">
+      <c r="H112" s="1">
         <v>982</v>
       </c>
-      <c r="H86" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
+      <c r="I112" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>86</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F87" s="3">
+      <c r="G113" s="3">
         <v>42451</v>
       </c>
-      <c r="G87" s="1">
+      <c r="H113" s="1">
         <v>149</v>
       </c>
-      <c r="H87" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+      <c r="I113" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>87</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" s="1" t="s">
+      <c r="D114" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F88" s="3">
+      <c r="G114" s="3">
         <v>42451</v>
       </c>
-      <c r="G88" s="1">
+      <c r="H114" s="1">
         <v>726</v>
       </c>
-      <c r="H88" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+      <c r="I114" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>88</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G115" s="3">
         <v>42451</v>
       </c>
-      <c r="G89" s="1">
+      <c r="H115" s="1">
         <v>286</v>
       </c>
-      <c r="H89" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
+      <c r="I115" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>205</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="H116" s="9">
+        <v>715</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K116" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>89</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="1" t="s">
+      <c r="D117" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F90" s="3">
+      <c r="G117" s="3">
         <v>42451</v>
       </c>
-      <c r="G90" s="1">
+      <c r="H117" s="1">
         <v>515</v>
       </c>
-      <c r="H90" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+      <c r="I117" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>90</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G118" s="3">
         <v>42451</v>
       </c>
-      <c r="G91" s="1">
+      <c r="H118" s="1">
         <v>1004</v>
       </c>
-      <c r="H91" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+      <c r="I118" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>91</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D92" s="1" t="s">
+      <c r="D119" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F92" s="3">
+      <c r="G119" s="3">
         <v>42451</v>
       </c>
-      <c r="G92" s="1">
+      <c r="H119" s="1">
         <v>1077</v>
       </c>
-      <c r="H92" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
+      <c r="I119" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>92</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" s="1" t="s">
+      <c r="D120" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F93" s="3">
+      <c r="G120" s="3">
         <v>42451</v>
       </c>
-      <c r="G93" s="1">
+      <c r="H120" s="1">
         <v>721</v>
       </c>
-      <c r="H93" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+      <c r="I120" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>93</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="1" t="s">
+      <c r="D121" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G121" s="3">
         <v>42451</v>
       </c>
-      <c r="G94" s="1">
+      <c r="H121" s="1">
         <v>224</v>
       </c>
-      <c r="H94" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I94" s="1" t="s">
+      <c r="I121" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J121" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>94</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D122" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F95" s="3">
+      <c r="G122" s="3">
         <v>42451</v>
       </c>
-      <c r="G95" s="1">
+      <c r="H122" s="1">
         <v>787</v>
       </c>
-      <c r="H95" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
+      <c r="I122" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>95</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" s="1" t="s">
+      <c r="D123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G123" s="3">
         <v>42451</v>
       </c>
-      <c r="G96" s="1">
+      <c r="H123" s="1">
         <v>971</v>
       </c>
-      <c r="H96" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+      <c r="I123" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>96</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" s="1" t="s">
+      <c r="D124" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F97" s="3">
+      <c r="G124" s="3">
         <v>42451</v>
       </c>
-      <c r="G97" s="1">
+      <c r="H124" s="1">
         <v>943</v>
       </c>
-      <c r="H97" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J97" s="1" t="s">
+      <c r="I124" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K124" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>97</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C125" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D98" s="1" t="s">
+      <c r="D125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F98" s="3">
+      <c r="G125" s="3">
         <v>42451</v>
       </c>
-      <c r="G98" s="1">
+      <c r="H125" s="1">
         <v>912</v>
       </c>
-      <c r="H98" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J98" s="1" t="s">
+      <c r="I125" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K125" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>98</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C126" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99" s="1" t="s">
+      <c r="D126" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F99" s="3">
+      <c r="G126" s="3">
         <v>42465</v>
       </c>
-      <c r="G99" s="1">
+      <c r="H126" s="1">
         <v>739</v>
       </c>
-      <c r="H99" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J99" s="1" t="s">
+      <c r="I126" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K126" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>99</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C127" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="D127" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G127" s="3">
         <v>42465</v>
       </c>
-      <c r="G100" s="1">
+      <c r="H127" s="1">
         <v>712</v>
       </c>
-      <c r="H100" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I100" s="1" t="s">
+      <c r="I127" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J127" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J100" s="8" t="s">
+      <c r="K127" s="8" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>100</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D101" s="1" t="s">
+      <c r="D128" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G128" s="3">
         <v>42465</v>
       </c>
-      <c r="G101" s="1">
+      <c r="H128" s="1">
         <v>703</v>
       </c>
-      <c r="H101" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I101" s="1" t="s">
+      <c r="I128" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J128" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J101" s="8" t="s">
+      <c r="K128" s="8" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>101</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C129" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="E129" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G129" s="3">
         <v>42465</v>
       </c>
-      <c r="G102" s="1">
+      <c r="H129" s="1">
         <v>857</v>
       </c>
-      <c r="H102" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I102" s="1" t="s">
+      <c r="I129" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J129" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J102" s="8" t="s">
+      <c r="K129" s="8" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>102</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103" s="1" t="s">
+      <c r="D130" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F103" s="3">
+      <c r="G130" s="3">
         <v>42465</v>
       </c>
-      <c r="G103" s="1">
+      <c r="H130" s="1">
         <v>1017</v>
       </c>
-      <c r="H103" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I103" s="1" t="s">
+      <c r="I130" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J130" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>103</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D104" s="1" t="s">
+      <c r="D131" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F104" s="3">
+      <c r="G131" s="3">
         <v>42465</v>
       </c>
-      <c r="G104" s="1">
+      <c r="H131" s="1">
         <v>503</v>
       </c>
-      <c r="H104" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I104" s="1" t="s">
+      <c r="I131" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J131" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>104</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D105" s="1" t="s">
+      <c r="D132" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F105" s="3">
+      <c r="G132" s="3">
         <v>42465</v>
       </c>
-      <c r="G105" s="1">
+      <c r="H132" s="1">
         <v>266</v>
       </c>
-      <c r="H105" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I105" s="1" t="s">
+      <c r="I132" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J132" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>105</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C133" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="E133" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F106" s="3">
+      <c r="G133" s="3">
         <v>42465</v>
       </c>
-      <c r="G106" s="1">
+      <c r="H133" s="1">
         <v>1165</v>
       </c>
-      <c r="H106" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I106" s="1" t="s">
+      <c r="I133" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J133" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>106</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D107" s="1" t="s">
+      <c r="D134" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F107" s="3">
+      <c r="G134" s="3">
         <v>42465</v>
       </c>
-      <c r="G107" s="1">
+      <c r="H134" s="1">
         <v>765</v>
       </c>
-      <c r="H107" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I107" s="1" t="s">
+      <c r="I134" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J134" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>107</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="E135" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F108" s="3">
+      <c r="G135" s="3">
         <v>42465</v>
       </c>
-      <c r="G108" s="1">
+      <c r="H135" s="1">
         <v>850</v>
       </c>
-      <c r="H108" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I108" s="1" t="s">
+      <c r="I135" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J135" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>206</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="H136" s="9">
+        <v>120</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K136" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>207</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="H137" s="9">
+        <v>830</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K137" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>208</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="H138" s="9">
+        <v>1065</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K138" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>209</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="H139" s="9">
+        <v>157</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K139" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>210</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="H140" s="9">
+        <v>853</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K140" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>211</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="H141" s="9">
+        <v>526</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K141" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>212</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="H142" s="9">
+        <v>195</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K142" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>213</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="H143" s="9">
+        <v>368</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K143" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>214</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="H144" s="9">
+        <v>338</v>
+      </c>
+      <c r="I144" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K144" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>215</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="H145" s="9">
+        <v>85</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K145" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>216</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="H146" s="9">
+        <v>647</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K146" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>217</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="H147" s="9">
+        <v>208</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K147"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>218</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="H148" s="9">
+        <v>841</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K148" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>219</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="H149" s="9">
+        <v>770</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K149" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>220</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="H150" s="9">
+        <v>747</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K150" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>221</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="H151" s="9">
+        <v>326</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K151" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>222</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="H152" s="9">
+        <v>938</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K152"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>223</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="H153" s="9">
+        <v>978</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K153"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>224</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="H154" s="9">
+        <v>985</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K154" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>225</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="H155" s="9">
+        <v>631</v>
+      </c>
+      <c r="I155" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K155" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>226</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="H156" s="9">
+        <v>572</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K156" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>227</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="H157" s="9">
+        <v>409</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K157" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>228</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="H158" s="9">
+        <v>613</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K158" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>229</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="H159" s="9">
+        <v>566</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K159" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>230</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="H160" s="9">
+        <v>432</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K160" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>231</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="H161" s="9">
+        <v>427</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K161" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>232</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="H162" s="9">
+        <v>344</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K162" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>233</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="H163" s="9">
+        <v>459</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K163" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>234</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="H164" s="9">
+        <v>1134</v>
+      </c>
+      <c r="I164" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K164"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>235</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="H165" s="9">
+        <v>324</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K165" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>108</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C166" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D109" s="1" t="s">
+      <c r="D166" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F109" s="3">
+      <c r="G166" s="3">
         <v>42486</v>
       </c>
-      <c r="G109" s="1">
+      <c r="H166" s="1">
         <v>391</v>
       </c>
-      <c r="H109" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
+      <c r="I166" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>236</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="H167" s="9">
+        <v>7</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K167" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>237</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="H168" s="9">
+        <v>66</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K168" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>109</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C169" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D110" s="1" t="s">
+      <c r="D169" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E169" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F110" s="3">
+      <c r="G169" s="3">
         <v>42486</v>
       </c>
-      <c r="G110" s="1">
+      <c r="H169" s="1">
         <v>264</v>
       </c>
-      <c r="H110" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
+      <c r="I169" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>238</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="H170" s="9">
+        <v>107</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="K170" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>110</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C171" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="D171" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="E171" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F111" s="3">
+      <c r="G171" s="3">
         <v>42486</v>
       </c>
-      <c r="G111" s="1">
+      <c r="H171" s="1">
         <v>764</v>
       </c>
-      <c r="H111" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
+      <c r="I171" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>111</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C172" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D112" s="1" t="s">
+      <c r="D172" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E172" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F112" s="3">
+      <c r="G172" s="3">
         <v>42479</v>
       </c>
-      <c r="G112" s="1">
+      <c r="H172" s="1">
         <v>302</v>
       </c>
-      <c r="H112" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
+      <c r="I172" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>190</v>
+      </c>
+      <c r="B173" t="s">
+        <v>352</v>
+      </c>
+      <c r="H173" s="1">
+        <v>0</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>112</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C174" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="D174" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="E174" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F113" s="3">
+      <c r="G174" s="3">
         <v>42479</v>
       </c>
-      <c r="G113" s="1">
+      <c r="H174" s="1">
         <v>266</v>
       </c>
-      <c r="H113" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J113" s="1" t="s">
+      <c r="I174" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K174" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>113</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C175" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F114" s="3">
+      <c r="G175" s="3">
         <v>42479</v>
       </c>
-      <c r="G114" s="1">
+      <c r="H175" s="1">
         <v>395</v>
       </c>
-      <c r="H114" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J114" s="1" t="s">
+      <c r="I175" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K175" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>191</v>
+      </c>
+      <c r="B176" t="s">
+        <v>353</v>
+      </c>
+      <c r="H176" s="1">
+        <v>0</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>188</v>
+      </c>
+      <c r="B177" t="s">
+        <v>350</v>
+      </c>
+      <c r="H177" s="1">
+        <v>0</v>
+      </c>
+      <c r="I177" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>185</v>
+      </c>
+      <c r="B178" t="s">
+        <v>347</v>
+      </c>
+      <c r="H178" s="1">
+        <v>0</v>
+      </c>
+      <c r="I178" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>186</v>
+      </c>
+      <c r="B179" t="s">
+        <v>348</v>
+      </c>
+      <c r="H179" s="1">
+        <v>0</v>
+      </c>
+      <c r="I179" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>187</v>
+      </c>
+      <c r="B180" t="s">
+        <v>349</v>
+      </c>
+      <c r="H180" s="1">
+        <v>0</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>189</v>
+      </c>
+      <c r="B181" t="s">
+        <v>351</v>
+      </c>
+      <c r="H181" s="1">
+        <v>0</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>193</v>
+      </c>
+      <c r="B182" t="s">
+        <v>355</v>
+      </c>
+      <c r="H182" s="1">
+        <v>0</v>
+      </c>
+      <c r="I182" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>184</v>
+      </c>
+      <c r="B183" t="s">
+        <v>346</v>
+      </c>
+      <c r="H183" s="1">
+        <v>0</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>192</v>
+      </c>
+      <c r="B184" t="s">
+        <v>354</v>
+      </c>
+      <c r="H184" s="1">
+        <v>0</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>114</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C185" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F115" s="3">
+      <c r="G185" s="3">
         <v>42892</v>
       </c>
-      <c r="G115" s="1">
+      <c r="H185" s="1">
         <v>486</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="I185" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>115</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C186" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F116" s="3">
+      <c r="G186" s="3">
         <v>42892</v>
       </c>
-      <c r="G116" s="1">
+      <c r="H186" s="1">
         <v>609</v>
       </c>
-      <c r="H116" s="1" t="s">
+      <c r="I186" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>116</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C187" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F117" s="3">
+      <c r="G187" s="3">
         <v>42892</v>
       </c>
-      <c r="G117" s="1">
+      <c r="H187" s="1">
         <v>731</v>
       </c>
-      <c r="H117" s="1" t="s">
+      <c r="I187" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>117</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C188" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F118" s="3">
+      <c r="G188" s="3">
         <v>42892</v>
       </c>
-      <c r="G118" s="1">
+      <c r="H188" s="1">
         <v>686</v>
       </c>
-      <c r="H118" s="1" t="s">
+      <c r="I188" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>118</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="C189" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F119" s="3">
+      <c r="G189" s="3">
         <v>42892</v>
       </c>
-      <c r="G119" s="1">
+      <c r="H189" s="1">
         <v>814</v>
       </c>
-      <c r="H119" s="1" t="s">
+      <c r="I189" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>119</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C190" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F120" s="3">
+      <c r="G190" s="3">
         <v>42892</v>
       </c>
-      <c r="G120" s="1">
+      <c r="H190" s="1">
         <v>608</v>
       </c>
-      <c r="H120" s="1" t="s">
+      <c r="I190" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>120</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C191" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F121" s="3">
+      <c r="G191" s="3">
         <v>42892</v>
       </c>
-      <c r="G121" s="1">
+      <c r="H191" s="1">
         <v>1051</v>
       </c>
-      <c r="H121" s="1" t="s">
+      <c r="I191" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>121</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C192" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F122" s="3">
+      <c r="G192" s="3">
         <v>42892</v>
       </c>
-      <c r="G122" s="1">
+      <c r="H192" s="1">
         <v>863</v>
       </c>
-      <c r="H122" s="1" t="s">
+      <c r="I192" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>122</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C193" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F123" s="3">
+      <c r="G193" s="3">
         <v>42892</v>
       </c>
-      <c r="G123" s="1">
+      <c r="H193" s="1">
         <v>998</v>
       </c>
-      <c r="H123" s="1" t="s">
+      <c r="I193" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>123</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C194" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F124" s="3">
+      <c r="G194" s="3">
         <v>42892</v>
       </c>
-      <c r="G124" s="1">
+      <c r="H194" s="1">
         <v>632</v>
       </c>
-      <c r="H124" s="1" t="s">
+      <c r="I194" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>124</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C195" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F125" s="3">
+      <c r="G195" s="3">
         <v>42892</v>
       </c>
-      <c r="G125" s="1">
+      <c r="H195" s="1">
         <v>1204</v>
       </c>
-      <c r="H125" s="1" t="s">
+      <c r="I195" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>125</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C196" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F126" s="3">
+      <c r="G196" s="3">
         <v>42892</v>
       </c>
-      <c r="G126" s="1">
+      <c r="H196" s="1">
         <v>803</v>
       </c>
-      <c r="H126" s="1" t="s">
+      <c r="I196" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>126</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C197" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F127" s="3">
+      <c r="G197" s="3">
         <v>42892</v>
       </c>
-      <c r="G127" s="1">
+      <c r="H197" s="1">
         <v>889</v>
       </c>
-      <c r="H127" s="1" t="s">
+      <c r="I197" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>127</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C198" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="F128" s="3">
+      <c r="G198" s="3">
         <v>42892</v>
       </c>
-      <c r="G128" s="1">
+      <c r="H198" s="1">
         <v>1070</v>
       </c>
-      <c r="H128" s="1" t="s">
+      <c r="I198" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>128</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="C199" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F129" s="3">
+      <c r="G199" s="3">
         <v>42899</v>
       </c>
-      <c r="G129" s="1">
+      <c r="H199" s="1">
         <v>687</v>
       </c>
-      <c r="H129" s="1" t="s">
+      <c r="I199" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="J129" s="1" t="s">
+      <c r="K199" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>129</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="C200" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="F130" s="3">
+      <c r="G200" s="3">
         <v>42899</v>
       </c>
-      <c r="G130" s="1">
+      <c r="H200" s="1">
         <v>635</v>
       </c>
-      <c r="H130" s="1" t="s">
+      <c r="I200" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="J130" s="1" t="s">
+      <c r="K200" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>130</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C201" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F131" s="3">
+      <c r="G201" s="3">
         <v>42899</v>
       </c>
-      <c r="G131" s="1">
+      <c r="H201" s="1">
         <v>819</v>
       </c>
-      <c r="H131" s="1" t="s">
+      <c r="I201" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="J131" s="1" t="s">
+      <c r="K201" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>131</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="C202" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F132" s="3">
+      <c r="G202" s="3">
         <v>42899</v>
       </c>
-      <c r="G132" s="1">
+      <c r="H202" s="1">
         <v>327</v>
       </c>
-      <c r="H132" s="1" t="s">
+      <c r="I202" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>132</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C203" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F133" s="3">
+      <c r="G203" s="3">
         <v>42899</v>
       </c>
-      <c r="G133" s="1">
+      <c r="H203" s="1">
         <v>658</v>
       </c>
-      <c r="H133" s="1" t="s">
+      <c r="I203" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>133</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="C204" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F134" s="3">
+      <c r="G204" s="3">
         <v>42899</v>
       </c>
-      <c r="G134" s="1">
+      <c r="H204" s="1">
         <v>616</v>
       </c>
-      <c r="H134" s="1" t="s">
+      <c r="I204" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>134</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="C205" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F135" s="3">
+      <c r="G205" s="3">
         <v>42899</v>
       </c>
-      <c r="G135" s="1">
+      <c r="H205" s="1">
         <v>579</v>
       </c>
-      <c r="H135" s="1" t="s">
+      <c r="I205" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>135</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C206" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F136" s="3">
+      <c r="G206" s="3">
         <v>42899</v>
       </c>
-      <c r="G136" s="1">
+      <c r="H206" s="1">
         <v>798</v>
       </c>
-      <c r="H136" s="1" t="s">
+      <c r="I206" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>136</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="C207" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="F137" s="3">
+      <c r="G207" s="3">
         <v>42899</v>
       </c>
-      <c r="G137" s="1">
+      <c r="H207" s="1">
         <v>349</v>
       </c>
-      <c r="H137" s="1" t="s">
+      <c r="I207" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>137</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C208" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="F138" s="3">
+      <c r="G208" s="3">
         <v>42899</v>
       </c>
-      <c r="G138" s="1">
+      <c r="H208" s="1">
         <v>791</v>
       </c>
-      <c r="H138" s="1" t="s">
+      <c r="I208" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="J138" s="1" t="s">
+      <c r="K208" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>138</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="C209" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="F139" s="3">
+      <c r="G209" s="3">
         <v>42899</v>
       </c>
-      <c r="G139" s="1">
+      <c r="H209" s="1">
         <v>633</v>
       </c>
-      <c r="H139" s="1" t="s">
+      <c r="I209" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I139" s="1" t="s">
+      <c r="J209" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>139</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="C210" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="F140" s="3">
+      <c r="G210" s="3">
         <v>42899</v>
       </c>
-      <c r="G140" s="1">
+      <c r="H210" s="1">
         <v>356</v>
       </c>
-      <c r="H140" s="1" t="s">
+      <c r="I210" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I140" s="1" t="s">
+      <c r="J210" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="J140" s="1" t="s">
+      <c r="K210" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>140</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="C211" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="F141" s="3">
+      <c r="G211" s="3">
         <v>42899</v>
       </c>
-      <c r="G141" s="1">
+      <c r="H211" s="1">
         <v>759</v>
       </c>
-      <c r="H141" s="1" t="s">
+      <c r="I211" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I141" s="1" t="s">
+      <c r="J211" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>141</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="C212" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="F142" s="3">
+      <c r="G212" s="3">
         <v>42899</v>
       </c>
-      <c r="G142" s="1">
+      <c r="H212" s="1">
         <v>807</v>
       </c>
-      <c r="H142" s="1" t="s">
+      <c r="I212" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I142" s="1" t="s">
+      <c r="J212" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>142</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C213" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="F143" s="3">
+      <c r="G213" s="3">
         <v>42899</v>
       </c>
-      <c r="G143" s="1">
+      <c r="H213" s="1">
         <v>810</v>
       </c>
-      <c r="H143" s="1" t="s">
+      <c r="I213" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I143" s="1" t="s">
+      <c r="J213" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>159</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C214" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="G214" s="3">
+        <v>42899</v>
+      </c>
+      <c r="H214" s="1">
+        <v>839</v>
+      </c>
+      <c r="I214" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J214" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>160</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C215" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="G215" s="3">
+        <v>42899</v>
+      </c>
+      <c r="H215" s="1">
+        <v>579</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J215" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>161</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C216" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G216" s="3">
+        <v>42899</v>
+      </c>
+      <c r="H216" s="1">
+        <v>289</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J216" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K216" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>162</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G217" s="3">
+        <v>42899</v>
+      </c>
+      <c r="H217" s="1">
+        <v>276</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J217" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>163</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C218" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G218" s="3">
+        <v>42899</v>
+      </c>
+      <c r="H218" s="1">
+        <v>749</v>
+      </c>
+      <c r="I218" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J218" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>143</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="C219" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="F144" s="3">
+      <c r="G219" s="3">
         <v>42899</v>
       </c>
-      <c r="G144" s="1">
+      <c r="H219" s="1">
         <v>465</v>
       </c>
-      <c r="H144" s="1" t="s">
+      <c r="I219" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I144" s="1" t="s">
+      <c r="J219" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>144</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="C220" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="F145" s="3">
+      <c r="G220" s="3">
         <v>42899</v>
       </c>
-      <c r="G145" s="1">
+      <c r="H220" s="1">
         <v>341</v>
       </c>
-      <c r="H145" s="1" t="s">
+      <c r="I220" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I145" s="1" t="s">
+      <c r="J220" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>145</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="C221" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="F146" s="3">
+      <c r="G221" s="3">
         <v>42899</v>
       </c>
-      <c r="G146" s="1">
+      <c r="H221" s="1">
         <v>506</v>
       </c>
-      <c r="H146" s="1" t="s">
+      <c r="I221" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I146" s="1" t="s">
+      <c r="J221" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>146</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="C222" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="F147" s="3">
+      <c r="G222" s="3">
         <v>42899</v>
       </c>
-      <c r="G147" s="1">
+      <c r="H222" s="1">
         <v>521</v>
       </c>
-      <c r="H147" s="1" t="s">
+      <c r="I222" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I147" s="1" t="s">
+      <c r="J222" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>147</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="C223" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="F148" s="3">
+      <c r="G223" s="3">
         <v>42899</v>
       </c>
-      <c r="G148" s="1">
+      <c r="H223" s="1">
         <v>698</v>
       </c>
-      <c r="H148" s="1" t="s">
+      <c r="I223" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="I148" s="1" t="s">
+      <c r="J223" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>179</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="G224" s="3">
+        <v>42899</v>
+      </c>
+      <c r="H224" s="1">
+        <v>616</v>
+      </c>
+      <c r="I224" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J224" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>180</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C225" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="G225" s="3">
+        <v>42899</v>
+      </c>
+      <c r="H225" s="1">
+        <v>736</v>
+      </c>
+      <c r="I225" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J225" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>181</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C226" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="G226" s="3">
+        <v>42899</v>
+      </c>
+      <c r="H226" s="1">
+        <v>801</v>
+      </c>
+      <c r="I226" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J226" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>182</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C227" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="G227" s="3">
+        <v>42899</v>
+      </c>
+      <c r="H227" s="1">
+        <v>800</v>
+      </c>
+      <c r="I227" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J227" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>183</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C228" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="G228" s="3">
+        <v>42899</v>
+      </c>
+      <c r="H228" s="1">
+        <v>508</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J228" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K228" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>148</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="C229" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F149" s="3">
+      <c r="G229" s="3">
         <v>42598</v>
       </c>
-      <c r="G149" s="1">
+      <c r="H229" s="1">
         <v>964</v>
       </c>
-      <c r="H149" s="1" t="s">
+      <c r="I229" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I149" s="1" t="s">
+      <c r="J229" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>149</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="C230" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F150" s="3">
+      <c r="G230" s="3">
         <v>42598</v>
       </c>
-      <c r="G150" s="1">
+      <c r="H230" s="1">
         <v>688</v>
       </c>
-      <c r="H150" s="1" t="s">
+      <c r="I230" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I150" s="1" t="s">
+      <c r="J230" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>150</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="C231" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="F151" s="3">
+      <c r="G231" s="3">
         <v>42598</v>
       </c>
-      <c r="G151" s="1">
+      <c r="H231" s="1">
         <v>498</v>
       </c>
-      <c r="H151" s="1" t="s">
+      <c r="I231" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I151" s="1" t="s">
+      <c r="J231" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J151" s="1" t="s">
+      <c r="K231" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>151</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="C232" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F152" s="3">
+      <c r="G232" s="3">
         <v>42598</v>
       </c>
-      <c r="G152" s="1">
+      <c r="H232" s="1">
         <v>745</v>
       </c>
-      <c r="H152" s="1" t="s">
+      <c r="I232" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I152" s="1" t="s">
+      <c r="J232" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>152</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="C233" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F153" s="3">
+      <c r="G233" s="3">
         <v>42598</v>
       </c>
-      <c r="G153" s="1">
+      <c r="H233" s="1">
         <v>471</v>
       </c>
-      <c r="H153" s="1" t="s">
+      <c r="I233" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I153" s="1" t="s">
+      <c r="J233" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>153</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="C234" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="F154" s="3">
+      <c r="G234" s="3">
         <v>42598</v>
       </c>
-      <c r="G154" s="1">
+      <c r="H234" s="1">
         <v>865</v>
       </c>
-      <c r="H154" s="1" t="s">
+      <c r="I234" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I154" s="1" t="s">
+      <c r="J234" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>154</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="C235" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F155" s="3">
+      <c r="G235" s="3">
         <v>42598</v>
       </c>
-      <c r="G155" s="1">
+      <c r="H235" s="1">
         <v>753</v>
       </c>
-      <c r="H155" s="1" t="s">
+      <c r="I235" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I155" s="1" t="s">
+      <c r="J235" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>155</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="C236" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="F156" s="3">
+      <c r="G236" s="3">
         <v>42598</v>
       </c>
-      <c r="G156" s="1">
+      <c r="H236" s="1">
         <v>771</v>
       </c>
-      <c r="H156" s="1" t="s">
+      <c r="I236" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I156" s="1" t="s">
+      <c r="J236" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>156</v>
+      </c>
+      <c r="B237" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="C237" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F157" s="3">
+      <c r="G237" s="3">
         <v>42598</v>
       </c>
-      <c r="G157" s="1">
+      <c r="H237" s="1">
         <v>649</v>
       </c>
-      <c r="H157" s="1" t="s">
+      <c r="I237" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I157" s="1" t="s">
+      <c r="J237" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>157</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="C238" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F158" s="3">
+      <c r="G238" s="3">
         <v>42598</v>
       </c>
-      <c r="G158" s="1">
+      <c r="H238" s="1">
         <v>670</v>
       </c>
-      <c r="H158" s="1" t="s">
+      <c r="I238" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I158" s="1" t="s">
+      <c r="J238" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>158</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="C239" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="F159" s="3">
+      <c r="G239" s="3">
         <v>42598</v>
       </c>
-      <c r="G159" s="1">
+      <c r="H239" s="1">
         <v>490</v>
       </c>
-      <c r="H159" s="1" t="s">
+      <c r="I239" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="I159" s="1" t="s">
+      <c r="J239" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="F160" s="3">
-        <v>42899</v>
-      </c>
-      <c r="G160" s="1">
-        <v>839</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="F161" s="3">
-        <v>42899</v>
-      </c>
-      <c r="G161" s="1">
-        <v>579</v>
-      </c>
-      <c r="H161" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I161" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F162" s="3">
-        <v>42899</v>
-      </c>
-      <c r="G162" s="1">
-        <v>289</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I162" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J162" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F163" s="3">
-        <v>42899</v>
-      </c>
-      <c r="G163" s="1">
-        <v>276</v>
-      </c>
-      <c r="H163" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I163" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F164" s="3">
-        <v>42899</v>
-      </c>
-      <c r="G164" s="1">
-        <v>749</v>
-      </c>
-      <c r="H164" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I164" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F165" s="3">
-        <v>42899</v>
-      </c>
-      <c r="G165" s="1">
-        <v>856</v>
-      </c>
-      <c r="H165" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I165" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F166" s="3">
-        <v>42899</v>
-      </c>
-      <c r="G166" s="1">
-        <v>860</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I166" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F167" s="3">
-        <v>42899</v>
-      </c>
-      <c r="G167" s="1">
-        <v>791</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I167" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F168" s="3">
-        <v>42899</v>
-      </c>
-      <c r="G168" s="1">
-        <v>968</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I168" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F169" s="3">
-        <v>42899</v>
-      </c>
-      <c r="G169" s="1">
-        <v>981</v>
-      </c>
-      <c r="H169" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I169" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F170" s="3">
-        <v>42899</v>
-      </c>
-      <c r="G170" s="1">
-        <v>710</v>
-      </c>
-      <c r="H170" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I170" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F171" s="3">
-        <v>42899</v>
-      </c>
-      <c r="G171" s="1">
-        <v>827</v>
-      </c>
-      <c r="H171" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I171" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F172" s="3">
-        <v>42899</v>
-      </c>
-      <c r="G172" s="1">
-        <v>114</v>
-      </c>
-      <c r="H172" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I172" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F173" s="3">
-        <v>42899</v>
-      </c>
-      <c r="G173" s="1">
-        <v>219</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I173" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F174" s="3">
-        <v>42899</v>
-      </c>
-      <c r="G174" s="1">
-        <v>822</v>
-      </c>
-      <c r="H174" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I174" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F175" s="3">
-        <v>42899</v>
-      </c>
-      <c r="G175" s="1">
-        <v>857</v>
-      </c>
-      <c r="H175" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I175" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F176" s="3">
-        <v>42899</v>
-      </c>
-      <c r="G176" s="1">
-        <v>494</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I176" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F177" s="3">
-        <v>42899</v>
-      </c>
-      <c r="G177" s="1">
-        <v>730</v>
-      </c>
-      <c r="H177" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I177" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F178" s="3">
-        <v>42899</v>
-      </c>
-      <c r="G178" s="1">
-        <v>293</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I178" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F179" s="3">
-        <v>42899</v>
-      </c>
-      <c r="G179" s="1">
-        <v>292</v>
-      </c>
-      <c r="H179" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="I179" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F180" s="3">
-        <v>42899</v>
-      </c>
-      <c r="G180" s="1">
-        <v>616</v>
-      </c>
-      <c r="H180" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I180" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F181" s="3">
-        <v>42899</v>
-      </c>
-      <c r="G181" s="1">
-        <v>736</v>
-      </c>
-      <c r="H181" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I181" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F182" s="3">
-        <v>42899</v>
-      </c>
-      <c r="G182" s="1">
-        <v>801</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I182" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F183" s="3">
-        <v>42899</v>
-      </c>
-      <c r="G183" s="1">
-        <v>800</v>
-      </c>
-      <c r="H183" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I183" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="F184" s="3">
-        <v>42899</v>
-      </c>
-      <c r="G184" s="1">
-        <v>508</v>
-      </c>
-      <c r="H184" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I184" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="J184" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>346</v>
-      </c>
-      <c r="G185" s="1">
-        <v>0</v>
-      </c>
-      <c r="H185" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I185" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>347</v>
-      </c>
-      <c r="G186" s="1">
-        <v>0</v>
-      </c>
-      <c r="H186" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I186" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>348</v>
-      </c>
-      <c r="G187" s="1">
-        <v>0</v>
-      </c>
-      <c r="H187" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I187" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>349</v>
-      </c>
-      <c r="G188" s="1">
-        <v>0</v>
-      </c>
-      <c r="H188" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I188" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>350</v>
-      </c>
-      <c r="G189" s="1">
-        <v>0</v>
-      </c>
-      <c r="H189" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I189" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>351</v>
-      </c>
-      <c r="G190" s="1">
-        <v>0</v>
-      </c>
-      <c r="H190" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I190" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>352</v>
-      </c>
-      <c r="G191" s="1">
-        <v>0</v>
-      </c>
-      <c r="H191" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I191" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>353</v>
-      </c>
-      <c r="G192" s="1">
-        <v>0</v>
-      </c>
-      <c r="H192" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I192" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>354</v>
-      </c>
-      <c r="G193" s="1">
-        <v>0</v>
-      </c>
-      <c r="H193" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I193" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>355</v>
-      </c>
-      <c r="G194" s="1">
-        <v>0</v>
-      </c>
-      <c r="H194" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I194" s="1" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A195" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="G195" s="9">
-        <v>780</v>
-      </c>
-      <c r="H195" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I195" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J195" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A196" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="G196" s="9">
-        <v>1354</v>
-      </c>
-      <c r="H196" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I196" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J196"/>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A197" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="G197" s="9">
-        <v>745</v>
-      </c>
-      <c r="H197" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I197" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J197" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A198" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="G198" s="9">
-        <v>808</v>
-      </c>
-      <c r="H198" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I198" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J198"/>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A199" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="G199" s="9">
-        <v>1062</v>
-      </c>
-      <c r="H199" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I199" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J199"/>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A200" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="G200" s="9">
-        <v>1057</v>
-      </c>
-      <c r="H200" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I200" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J200"/>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A201" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="G201" s="9">
-        <v>2073</v>
-      </c>
-      <c r="H201" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I201" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J201" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A202" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="G202" s="9">
-        <v>401</v>
-      </c>
-      <c r="H202" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I202" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J202" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A203" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="G203" s="9">
-        <v>1578</v>
-      </c>
-      <c r="H203" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I203" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J203" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A204" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="G204" s="9">
-        <v>819</v>
-      </c>
-      <c r="H204" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I204" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J204" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A205" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="G205" s="9">
-        <v>425</v>
-      </c>
-      <c r="H205" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I205" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J205" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A206" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="G206" s="9">
-        <v>715</v>
-      </c>
-      <c r="H206" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I206" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J206" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A207" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="G207" s="9">
-        <v>120</v>
-      </c>
-      <c r="H207" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I207" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J207" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A208" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="G208" s="9">
-        <v>830</v>
-      </c>
-      <c r="H208" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I208" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J208" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A209" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="G209" s="9">
-        <v>1065</v>
-      </c>
-      <c r="H209" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I209" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J209" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A210" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="G210" s="9">
-        <v>157</v>
-      </c>
-      <c r="H210" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I210" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J210" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A211" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="G211" s="9">
-        <v>853</v>
-      </c>
-      <c r="H211" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I211" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J211" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A212" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="G212" s="9">
-        <v>526</v>
-      </c>
-      <c r="H212" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I212" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J212" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A213" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="G213" s="9">
-        <v>195</v>
-      </c>
-      <c r="H213" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I213" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J213" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A214" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="G214" s="9">
-        <v>368</v>
-      </c>
-      <c r="H214" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I214" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J214" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A215" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="G215" s="9">
-        <v>338</v>
-      </c>
-      <c r="H215" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I215" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J215" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A216" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="G216" s="9">
-        <v>85</v>
-      </c>
-      <c r="H216" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I216" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J216" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A217" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="G217" s="9">
-        <v>647</v>
-      </c>
-      <c r="H217" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I217" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J217" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A218" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="G218" s="9">
-        <v>208</v>
-      </c>
-      <c r="H218" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I218" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J218"/>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A219" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="G219" s="9">
-        <v>841</v>
-      </c>
-      <c r="H219" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I219" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J219" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A220" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G220" s="9">
-        <v>770</v>
-      </c>
-      <c r="H220" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I220" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J220" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A221" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="G221" s="9">
-        <v>747</v>
-      </c>
-      <c r="H221" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I221" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J221" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A222" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="G222" s="9">
-        <v>326</v>
-      </c>
-      <c r="H222" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I222" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J222" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A223" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="G223" s="9">
-        <v>938</v>
-      </c>
-      <c r="H223" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I223" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J223"/>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A224" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="G224" s="9">
-        <v>978</v>
-      </c>
-      <c r="H224" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I224" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J224"/>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A225" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="G225" s="9">
-        <v>985</v>
-      </c>
-      <c r="H225" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I225" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J225" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A226" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="G226" s="9">
-        <v>631</v>
-      </c>
-      <c r="H226" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I226" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J226" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A227" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="G227" s="9">
-        <v>572</v>
-      </c>
-      <c r="H227" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I227" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J227" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A228" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="G228" s="9">
-        <v>409</v>
-      </c>
-      <c r="H228" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I228" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J228" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A229" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="G229" s="9">
-        <v>613</v>
-      </c>
-      <c r="H229" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I229" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J229" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A230" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="G230" s="9">
-        <v>566</v>
-      </c>
-      <c r="H230" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I230" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J230" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A231" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="G231" s="9">
-        <v>432</v>
-      </c>
-      <c r="H231" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I231" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J231" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A232" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="G232" s="9">
-        <v>427</v>
-      </c>
-      <c r="H232" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I232" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J232" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A233" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="G233" s="9">
-        <v>344</v>
-      </c>
-      <c r="H233" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I233" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J233" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A234" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="G234" s="9">
-        <v>459</v>
-      </c>
-      <c r="H234" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I234" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J234" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A235" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="G235" s="9">
-        <v>1134</v>
-      </c>
-      <c r="H235" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I235" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J235"/>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A236" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="G236" s="9">
-        <v>324</v>
-      </c>
-      <c r="H236" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I236" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J236" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A237" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="G237" s="9">
-        <v>7</v>
-      </c>
-      <c r="H237" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I237" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J237" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A238" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="G238" s="9">
-        <v>66</v>
-      </c>
-      <c r="H238" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I238" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J238" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A239" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="G239" s="9">
-        <v>107</v>
-      </c>
-      <c r="H239" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I239" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J239" t="s">
-        <v>402</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:J162">
-    <sortCondition ref="A2:A162"/>
+  <sortState ref="A2:K242">
+    <sortCondition ref="B2:B242"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
